--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_5_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_5_sawtooth_10_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7.484249532563325e-05</v>
+        <v>0.0004874112272066355</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0002329727480953564</v>
+        <v>0.001485253369957398</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.640745363277228</v>
+        <v>5.188429808816737</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.688141445298996, 8.59334928125546]</t>
+          <t>[2.2443792668563614, 8.132480350777113]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0002112080272227423</v>
+        <v>0.0006141406263899807</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0002112080272227423</v>
+        <v>0.0006141406263899807</v>
       </c>
       <c r="O2" t="n">
         <v>-1.496894998106848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.138421425866925, -0.855368570346771]</t>
+          <t>[-2.251631971942233, -0.7421580242714629]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.982314930681355e-06</v>
+        <v>0.0001218549013350945</v>
       </c>
       <c r="R2" t="n">
-        <v>6.982314930681355e-06</v>
+        <v>0.0001218549013350945</v>
       </c>
       <c r="S2" t="n">
-        <v>10.75895558984883</v>
+        <v>10.85250687009681</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.009059655773921, 12.508851523923745]</t>
+          <t>[9.04596208190457, 12.659051658289055]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>6.191811811811959</v>
       </c>
       <c r="X2" t="n">
-        <v>3.538178178178266</v>
+        <v>3.069889889889965</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.845445445445652</v>
+        <v>9.313733733733955</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,41 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.69000000000042</v>
+        <v>24.75000000000043</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.657160204977416e-06</v>
+        <v>2.933180706843341e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>3.433196920110034e-05</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>0.0003134235367074911</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.674857204855002</v>
+        <v>5.176938540239227</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.2245595907035955, 8.125154819006408]</t>
+          <t>[2.5847318552512313, 7.7691452252272235]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.650561212990681e-06</v>
+        <v>0.0001062708519370403</v>
       </c>
       <c r="N3" t="n">
-        <v>1.530112242598136e-05</v>
+        <v>0.0002125417038740807</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.094421592725082</v>
+        <v>-2.993789996213697</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.6478953735376973, -2.5409478119124658]</t>
+          <t>[-3.6101585248459287, -2.377421467581465]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>10.04952474549497</v>
+        <v>9.914401291579935</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.507789504303908, 11.591259986686033]</t>
+          <t>[8.347947776447558, 11.480854806712312]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.15963963963985</v>
+        <v>11.792792792793</v>
       </c>
       <c r="X3" t="n">
-        <v>9.984744744744917</v>
+        <v>9.364864864865027</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.33453453453478</v>
+        <v>14.22072072072097</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_5_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_5_sawtooth_10_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004874112272066355</v>
+        <v>2.593485796997808e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001485253369957398</v>
+        <v>8.754382437123401e-05</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.188429808816737</v>
+        <v>5.816563155747597</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.2443792668563614, 8.132480350777113]</t>
+          <t>[2.8918332520226127, 8.741293059472582]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0006141406263899807</v>
+        <v>0.0001168987961339685</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0006141406263899807</v>
+        <v>0.0001168987961339685</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.496894998106848</v>
+        <v>-1.358526552903694</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.251631971942233, -0.7421580242714629]</t>
+          <t>[-1.9748950815359247, -0.7421580242714629]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001218549013350945</v>
+        <v>2.092270301790045e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001218549013350945</v>
+        <v>2.092270301790045e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>10.85250687009681</v>
+        <v>11.01722052597709</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.04596208190457, 12.659051658289055]</t>
+          <t>[9.302747171377062, 12.731693880577113]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.191811811811959</v>
+        <v>5.619459459459595</v>
       </c>
       <c r="X2" t="n">
-        <v>3.069889889889965</v>
+        <v>3.069889889889967</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.313733733733955</v>
+        <v>8.169029029029222</v>
       </c>
     </row>
     <row r="3">
@@ -652,41 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.75000000000043</v>
+        <v>24.5800000000004</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.933180706843341e-05</v>
+        <v>1.728039586756935e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003134235367074911</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
+        <v>2.316143496133282e-05</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.176938540239227</v>
+        <v>5.849227598604086</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.5847318552512313, 7.7691452252272235]</t>
+          <t>[3.359721971887149, 8.338733225321024]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0001062708519370403</v>
+        <v>5.697463416165505e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002125417038740807</v>
+        <v>1.139492683233101e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.993789996213697</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.6101585248459287, -2.377421467581465]</t>
+          <t>[2.534658337130504, 3.540974302244351]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.914401291579935</v>
+        <v>10.17924479597964</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.347947776447558, 11.480854806712312]</t>
+          <t>[8.621177578282047, 11.737312013677236]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.792792792793</v>
+        <v>12.69597597597618</v>
       </c>
       <c r="X3" t="n">
-        <v>9.364864864865027</v>
+        <v>10.72760760760778</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.22072072072097</v>
+        <v>14.66434434434458</v>
       </c>
     </row>
   </sheetData>
